--- a/siglas/M2_AWS.xlsx
+++ b/siglas/M2_AWS.xlsx
@@ -1705,12 +1705,12 @@
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Homologation</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>4 x BACKUP 16GB RAM 8vCPU (BACKUP)</t>
+          <t>4 x WEBSERVERS 32GB RAM 16vCPU (CONECTA WEB)</t>
         </is>
       </c>
       <c r="D4" s="25" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="F4" s="23" t="inlineStr">
         <is>
-          <t>c6i.2xlarge</t>
+          <t>c6a.4xlarge</t>
         </is>
       </c>
       <c r="G4" s="19" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>6 x BACKUP 32GB RAM 16vCPU (WEBSERVER)</t>
+          <t>4 x WEBSERVERS 32GB RAM 16vCPU (PORTAL MASSAS)</t>
         </is>
       </c>
       <c r="D5" s="22" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I5" s="6" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>2 x BACKUP 8GB RAM 4vCPU (WEBSERVER)</t>
+          <t>2 x WEBSERVERS 16GB RAM 8vCPU (PORTAL WEB)</t>
         </is>
       </c>
       <c r="D6" s="22" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="F6" s="24" t="inlineStr">
         <is>
-          <t>c6in.xlarge</t>
+          <t>c6i.2xlarge</t>
         </is>
       </c>
       <c r="G6" s="5" t="inlineStr">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="M6" s="6" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>230</t>
         </is>
       </c>
       <c r="N6" s="6" t="n"/>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>2 x BACKUP 16GB RAM 4vCPU (BACKUP)</t>
+          <t>2 x WEBSERVERS 16GB RAM 8vCPU (CONECTA WEB)</t>
         </is>
       </c>
       <c r="D7" s="22" t="inlineStr">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="F7" s="24" t="inlineStr">
         <is>
-          <t>m6id.xlarge</t>
+          <t>c6i.2xlarge</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
@@ -2015,286 +2015,1014 @@
         <f>IF(ISBLANK(H8),0,1)</f>
         <v/>
       </c>
-      <c r="B8" s="13" t="n"/>
-      <c r="C8" s="13" t="n"/>
-      <c r="D8" s="22" t="n"/>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="26" t="n"/>
-      <c r="H8" s="6" t="n"/>
-      <c r="I8" s="6" t="n"/>
-      <c r="J8" s="27" t="n"/>
-      <c r="K8" s="5" t="n"/>
-      <c r="L8" s="5" t="n"/>
-      <c r="M8" s="6" t="n"/>
+      <c r="B8" s="13" t="inlineStr">
+        <is>
+          <t>Homologation</t>
+        </is>
+      </c>
+      <c r="C8" s="13" t="inlineStr">
+        <is>
+          <t>2 x WEBSERVERS 32GB RAM 16vCPU (WEBSERVER)</t>
+        </is>
+      </c>
+      <c r="D8" s="22" t="inlineStr">
+        <is>
+          <t>sa-east-1</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>Windows Server</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>c6a.4xlarge</t>
+        </is>
+      </c>
+      <c r="G8" s="26" t="inlineStr">
+        <is>
+          <t>Shared Instances</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I8" s="6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J8" s="27" t="inlineStr">
+        <is>
+          <t>Hours/Week</t>
+        </is>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>On-Demand</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
+          <t>General Purpose SSD (gp3)</t>
+        </is>
+      </c>
+      <c r="M8" s="6" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
       <c r="N8" s="6" t="n"/>
       <c r="O8" s="6" t="n"/>
-      <c r="P8" s="29" t="n"/>
-      <c r="Q8" s="6" t="n"/>
+      <c r="P8" s="29" t="inlineStr">
+        <is>
+          <t>2x Daily</t>
+        </is>
+      </c>
+      <c r="Q8" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="13">
         <f>IF(ISBLANK(H9),0,1)</f>
         <v/>
       </c>
-      <c r="B9" s="13" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="22" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="26" t="n"/>
-      <c r="H9" s="6" t="n"/>
-      <c r="I9" s="6" t="n"/>
-      <c r="J9" s="27" t="n"/>
-      <c r="K9" s="5" t="n"/>
-      <c r="L9" s="5" t="n"/>
-      <c r="M9" s="6" t="n"/>
+      <c r="B9" s="13" t="inlineStr">
+        <is>
+          <t>Homologation</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>2 x WEBSERVERS 32GB RAM 16vCPU (TOWER)</t>
+        </is>
+      </c>
+      <c r="D9" s="22" t="inlineStr">
+        <is>
+          <t>sa-east-1</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>Windows Server</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>c6a.4xlarge</t>
+        </is>
+      </c>
+      <c r="G9" s="26" t="inlineStr">
+        <is>
+          <t>Shared Instances</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I9" s="6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J9" s="27" t="inlineStr">
+        <is>
+          <t>Hours/Week</t>
+        </is>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>On-Demand</t>
+        </is>
+      </c>
+      <c r="L9" s="5" t="inlineStr">
+        <is>
+          <t>General Purpose SSD (gp3)</t>
+        </is>
+      </c>
+      <c r="M9" s="6" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
       <c r="N9" s="6" t="n"/>
       <c r="O9" s="6" t="n"/>
-      <c r="P9" s="29" t="n"/>
-      <c r="Q9" s="6" t="n"/>
+      <c r="P9" s="29" t="inlineStr">
+        <is>
+          <t>2x Daily</t>
+        </is>
+      </c>
+      <c r="Q9" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="13">
         <f>IF(ISBLANK(H10),0,1)</f>
         <v/>
       </c>
-      <c r="B10" s="13" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="22" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="26" t="n"/>
-      <c r="H10" s="6" t="n"/>
-      <c r="I10" s="3" t="n"/>
-      <c r="J10" s="27" t="n"/>
-      <c r="K10" s="5" t="n"/>
-      <c r="L10" s="5" t="n"/>
-      <c r="M10" s="6" t="n"/>
+      <c r="B10" s="13" t="inlineStr">
+        <is>
+          <t>Homologation</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>2 x WEBSERVERS 32GB RAM 16vCPU (WEB THINKERS)</t>
+        </is>
+      </c>
+      <c r="D10" s="22" t="inlineStr">
+        <is>
+          <t>sa-east-1</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>Windows Server</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>c6a.4xlarge</t>
+        </is>
+      </c>
+      <c r="G10" s="26" t="inlineStr">
+        <is>
+          <t>Shared Instances</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J10" s="27" t="inlineStr">
+        <is>
+          <t>Hours/Week</t>
+        </is>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>On-Demand</t>
+        </is>
+      </c>
+      <c r="L10" s="5" t="inlineStr">
+        <is>
+          <t>General Purpose SSD (gp3)</t>
+        </is>
+      </c>
+      <c r="M10" s="6" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
       <c r="N10" s="6" t="n"/>
       <c r="O10" s="6" t="n"/>
-      <c r="P10" s="29" t="n"/>
-      <c r="Q10" s="6" t="n"/>
+      <c r="P10" s="29" t="inlineStr">
+        <is>
+          <t>2x Daily</t>
+        </is>
+      </c>
+      <c r="Q10" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="13">
         <f>IF(ISBLANK(H11),0,1)</f>
         <v/>
       </c>
-      <c r="B11" s="13" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="22" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="26" t="n"/>
-      <c r="H11" s="6" t="n"/>
-      <c r="I11" s="3" t="n"/>
-      <c r="J11" s="27" t="n"/>
-      <c r="K11" s="5" t="n"/>
-      <c r="L11" s="5" t="n"/>
-      <c r="M11" s="6" t="n"/>
+      <c r="B11" s="13" t="inlineStr">
+        <is>
+          <t>Homologation</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>2 x WEBSERVERS 8GB RAM 4vCPU (WEB THINKERS)</t>
+        </is>
+      </c>
+      <c r="D11" s="22" t="inlineStr">
+        <is>
+          <t>sa-east-1</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>Windows Server</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>c6in.xlarge</t>
+        </is>
+      </c>
+      <c r="G11" s="26" t="inlineStr">
+        <is>
+          <t>Shared Instances</t>
+        </is>
+      </c>
+      <c r="H11" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J11" s="27" t="inlineStr">
+        <is>
+          <t>Hours/Week</t>
+        </is>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>On-Demand</t>
+        </is>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
+        <is>
+          <t>General Purpose SSD (gp3)</t>
+        </is>
+      </c>
+      <c r="M11" s="6" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
       <c r="N11" s="6" t="n"/>
       <c r="O11" s="6" t="n"/>
-      <c r="P11" s="29" t="n"/>
-      <c r="Q11" s="6" t="n"/>
+      <c r="P11" s="29" t="inlineStr">
+        <is>
+          <t>2x Daily</t>
+        </is>
+      </c>
+      <c r="Q11" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="13">
         <f>IF(ISBLANK(H12),0,1)</f>
         <v/>
       </c>
-      <c r="B12" s="13" t="n"/>
-      <c r="C12" s="5" t="n"/>
-      <c r="D12" s="22" t="n"/>
-      <c r="E12" s="5" t="n"/>
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="26" t="n"/>
-      <c r="H12" s="6" t="n"/>
-      <c r="I12" s="6" t="n"/>
-      <c r="J12" s="27" t="n"/>
-      <c r="K12" s="5" t="n"/>
-      <c r="L12" s="5" t="n"/>
-      <c r="M12" s="6" t="n"/>
+      <c r="B12" s="13" t="inlineStr">
+        <is>
+          <t>Homologation</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>2 x WEBSERVERS 32GB RAM 16vCPU (PORTAL GERACAO NEGOCIO)</t>
+        </is>
+      </c>
+      <c r="D12" s="22" t="inlineStr">
+        <is>
+          <t>sa-east-1</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>Windows Server</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>c6a.4xlarge</t>
+        </is>
+      </c>
+      <c r="G12" s="26" t="inlineStr">
+        <is>
+          <t>Shared Instances</t>
+        </is>
+      </c>
+      <c r="H12" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I12" s="6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J12" s="27" t="inlineStr">
+        <is>
+          <t>Hours/Week</t>
+        </is>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>On-Demand</t>
+        </is>
+      </c>
+      <c r="L12" s="5" t="inlineStr">
+        <is>
+          <t>General Purpose SSD (gp3)</t>
+        </is>
+      </c>
+      <c r="M12" s="6" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
       <c r="N12" s="6" t="n"/>
       <c r="O12" s="6" t="n"/>
-      <c r="P12" s="29" t="n"/>
-      <c r="Q12" s="6" t="n"/>
+      <c r="P12" s="29" t="inlineStr">
+        <is>
+          <t>2x Daily</t>
+        </is>
+      </c>
+      <c r="Q12" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="13">
         <f>IF(ISBLANK(H13),0,1)</f>
         <v/>
       </c>
-      <c r="B13" s="13" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="22" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="26" t="n"/>
-      <c r="H13" s="4" t="n"/>
-      <c r="I13" s="6" t="n"/>
-      <c r="J13" s="27" t="n"/>
-      <c r="K13" s="5" t="n"/>
-      <c r="L13" s="5" t="n"/>
-      <c r="M13" s="6" t="n"/>
+      <c r="B13" s="13" t="inlineStr">
+        <is>
+          <t>Homologation</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>2 x BACKUP 32GB RAM 16vCPU (BACKUP)</t>
+        </is>
+      </c>
+      <c r="D13" s="22" t="inlineStr">
+        <is>
+          <t>sa-east-1</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>Windows Server</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>c6a.4xlarge</t>
+        </is>
+      </c>
+      <c r="G13" s="26" t="inlineStr">
+        <is>
+          <t>Shared Instances</t>
+        </is>
+      </c>
+      <c r="H13" s="4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I13" s="6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J13" s="27" t="inlineStr">
+        <is>
+          <t>Hours/Week</t>
+        </is>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>On-Demand</t>
+        </is>
+      </c>
+      <c r="L13" s="5" t="inlineStr">
+        <is>
+          <t>General Purpose SSD (gp3)</t>
+        </is>
+      </c>
+      <c r="M13" s="6" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
       <c r="N13" s="6" t="n"/>
       <c r="O13" s="6" t="n"/>
-      <c r="P13" s="29" t="n"/>
-      <c r="Q13" s="6" t="n"/>
+      <c r="P13" s="29" t="inlineStr">
+        <is>
+          <t>2x Daily</t>
+        </is>
+      </c>
+      <c r="Q13" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="13">
         <f>IF(ISBLANK(H14),0,1)</f>
         <v/>
       </c>
-      <c r="B14" s="13" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="22" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="26" t="n"/>
-      <c r="H14" s="4" t="n"/>
-      <c r="I14" s="6" t="n"/>
-      <c r="J14" s="27" t="n"/>
-      <c r="K14" s="5" t="n"/>
-      <c r="L14" s="5" t="n"/>
-      <c r="M14" s="4" t="n"/>
+      <c r="B14" s="13" t="inlineStr">
+        <is>
+          <t>Homologation</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>2 x WEBSERVERS 16GB RAM 8vCPU (PORTAL GERACAO NEGOCIO)</t>
+        </is>
+      </c>
+      <c r="D14" s="22" t="inlineStr">
+        <is>
+          <t>sa-east-1</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>Windows Server</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>c6i.2xlarge</t>
+        </is>
+      </c>
+      <c r="G14" s="26" t="inlineStr">
+        <is>
+          <t>Shared Instances</t>
+        </is>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I14" s="6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J14" s="27" t="inlineStr">
+        <is>
+          <t>Hours/Week</t>
+        </is>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>On-Demand</t>
+        </is>
+      </c>
+      <c r="L14" s="5" t="inlineStr">
+        <is>
+          <t>General Purpose SSD (gp3)</t>
+        </is>
+      </c>
+      <c r="M14" s="4" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
       <c r="N14" s="6" t="n"/>
       <c r="O14" s="6" t="n"/>
-      <c r="P14" s="29" t="n"/>
-      <c r="Q14" s="6" t="n"/>
+      <c r="P14" s="29" t="inlineStr">
+        <is>
+          <t>2x Daily</t>
+        </is>
+      </c>
+      <c r="Q14" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="13">
         <f>IF(ISBLANK(H15),0,1)</f>
         <v/>
       </c>
-      <c r="B15" s="13" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="22" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="26" t="n"/>
-      <c r="H15" s="6" t="n"/>
-      <c r="I15" s="6" t="n"/>
-      <c r="J15" s="27" t="n"/>
-      <c r="K15" s="5" t="n"/>
-      <c r="L15" s="5" t="n"/>
-      <c r="M15" s="6" t="n"/>
+      <c r="B15" s="13" t="inlineStr">
+        <is>
+          <t>Homologation</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>2 x WEBSERVERS 16GB RAM 8vCPU (PORTAL MASSAS)</t>
+        </is>
+      </c>
+      <c r="D15" s="22" t="inlineStr">
+        <is>
+          <t>sa-east-1</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>Windows Server</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>c6i.2xlarge</t>
+        </is>
+      </c>
+      <c r="G15" s="26" t="inlineStr">
+        <is>
+          <t>Shared Instances</t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I15" s="6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J15" s="27" t="inlineStr">
+        <is>
+          <t>Hours/Week</t>
+        </is>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>On-Demand</t>
+        </is>
+      </c>
+      <c r="L15" s="5" t="inlineStr">
+        <is>
+          <t>General Purpose SSD (gp3)</t>
+        </is>
+      </c>
+      <c r="M15" s="6" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
       <c r="N15" s="6" t="n"/>
       <c r="O15" s="6" t="n"/>
-      <c r="P15" s="29" t="n"/>
-      <c r="Q15" s="6" t="n"/>
+      <c r="P15" s="29" t="inlineStr">
+        <is>
+          <t>2x Daily</t>
+        </is>
+      </c>
+      <c r="Q15" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="13">
         <f>IF(ISBLANK(H16),0,1)</f>
         <v/>
       </c>
-      <c r="B16" s="13" t="n"/>
-      <c r="C16" s="5" t="n"/>
-      <c r="D16" s="22" t="n"/>
-      <c r="E16" s="5" t="n"/>
-      <c r="F16" s="5" t="n"/>
-      <c r="G16" s="26" t="n"/>
-      <c r="H16" s="6" t="n"/>
-      <c r="I16" s="6" t="n"/>
-      <c r="J16" s="27" t="n"/>
-      <c r="K16" s="5" t="n"/>
-      <c r="L16" s="5" t="n"/>
-      <c r="M16" s="6" t="n"/>
+      <c r="B16" s="13" t="inlineStr">
+        <is>
+          <t>Homologation</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>2 x WEBSERVERS 8GB RAM 4vCPU (PORTAL MASSAS)</t>
+        </is>
+      </c>
+      <c r="D16" s="22" t="inlineStr">
+        <is>
+          <t>sa-east-1</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>Windows Server</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>c6in.xlarge</t>
+        </is>
+      </c>
+      <c r="G16" s="26" t="inlineStr">
+        <is>
+          <t>Shared Instances</t>
+        </is>
+      </c>
+      <c r="H16" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I16" s="6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J16" s="27" t="inlineStr">
+        <is>
+          <t>Hours/Week</t>
+        </is>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>On-Demand</t>
+        </is>
+      </c>
+      <c r="L16" s="5" t="inlineStr">
+        <is>
+          <t>General Purpose SSD (gp3)</t>
+        </is>
+      </c>
+      <c r="M16" s="6" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
       <c r="N16" s="6" t="n"/>
       <c r="O16" s="6" t="n"/>
-      <c r="P16" s="29" t="n"/>
-      <c r="Q16" s="6" t="n"/>
+      <c r="P16" s="29" t="inlineStr">
+        <is>
+          <t>2x Daily</t>
+        </is>
+      </c>
+      <c r="Q16" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="13">
         <f>IF(ISBLANK(H17),0,1)</f>
         <v/>
       </c>
-      <c r="B17" s="13" t="n"/>
-      <c r="C17" s="5" t="n"/>
-      <c r="D17" s="22" t="n"/>
-      <c r="E17" s="5" t="n"/>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="26" t="n"/>
-      <c r="H17" s="6" t="n"/>
-      <c r="I17" s="6" t="n"/>
-      <c r="J17" s="27" t="n"/>
-      <c r="K17" s="5" t="n"/>
-      <c r="L17" s="5" t="n"/>
-      <c r="M17" s="6" t="n"/>
+      <c r="B17" s="13" t="inlineStr">
+        <is>
+          <t>Homologation</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>2 x WEBSERVERS 16GB RAM 4vCPU (BACKUP)</t>
+        </is>
+      </c>
+      <c r="D17" s="22" t="inlineStr">
+        <is>
+          <t>sa-east-1</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>Windows Server</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>m6id.xlarge</t>
+        </is>
+      </c>
+      <c r="G17" s="26" t="inlineStr">
+        <is>
+          <t>Shared Instances</t>
+        </is>
+      </c>
+      <c r="H17" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I17" s="6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J17" s="27" t="inlineStr">
+        <is>
+          <t>Hours/Week</t>
+        </is>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>On-Demand</t>
+        </is>
+      </c>
+      <c r="L17" s="5" t="inlineStr">
+        <is>
+          <t>General Purpose SSD (gp3)</t>
+        </is>
+      </c>
+      <c r="M17" s="6" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
       <c r="N17" s="6" t="n"/>
       <c r="O17" s="6" t="n"/>
-      <c r="P17" s="29" t="n"/>
-      <c r="Q17" s="6" t="n"/>
+      <c r="P17" s="29" t="inlineStr">
+        <is>
+          <t>2x Daily</t>
+        </is>
+      </c>
+      <c r="Q17" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="13">
         <f>IF(ISBLANK(H18),0,1)</f>
         <v/>
       </c>
-      <c r="B18" s="13" t="n"/>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="22" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="26" t="n"/>
-      <c r="H18" s="6" t="n"/>
-      <c r="I18" s="6" t="n"/>
-      <c r="J18" s="27" t="n"/>
-      <c r="K18" s="5" t="n"/>
-      <c r="L18" s="5" t="n"/>
-      <c r="M18" s="6" t="n"/>
+      <c r="B18" s="13" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>2 x WEBSERVERS 32GB RAM 8vCPU (PORTAL QI)</t>
+        </is>
+      </c>
+      <c r="D18" s="22" t="inlineStr">
+        <is>
+          <t>sa-east-1</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>Windows Server</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>m6id.2xlarge</t>
+        </is>
+      </c>
+      <c r="G18" s="26" t="inlineStr">
+        <is>
+          <t>Shared Instances</t>
+        </is>
+      </c>
+      <c r="H18" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I18" s="6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J18" s="27" t="inlineStr">
+        <is>
+          <t>Hours/Week</t>
+        </is>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>On-Demand</t>
+        </is>
+      </c>
+      <c r="L18" s="5" t="inlineStr">
+        <is>
+          <t>General Purpose SSD (gp3)</t>
+        </is>
+      </c>
+      <c r="M18" s="6" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
       <c r="N18" s="6" t="n"/>
       <c r="O18" s="6" t="n"/>
-      <c r="P18" s="29" t="n"/>
-      <c r="Q18" s="6" t="n"/>
+      <c r="P18" s="29" t="inlineStr">
+        <is>
+          <t>2x Daily</t>
+        </is>
+      </c>
+      <c r="Q18" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="13">
         <f>IF(ISBLANK(H19),0,1)</f>
         <v/>
       </c>
-      <c r="B19" s="13" t="n"/>
-      <c r="C19" s="5" t="n"/>
-      <c r="D19" s="22" t="n"/>
-      <c r="E19" s="5" t="n"/>
-      <c r="F19" s="5" t="n"/>
-      <c r="G19" s="26" t="n"/>
-      <c r="H19" s="6" t="n"/>
-      <c r="I19" s="6" t="n"/>
-      <c r="J19" s="27" t="n"/>
-      <c r="K19" s="5" t="n"/>
-      <c r="L19" s="5" t="n"/>
-      <c r="M19" s="6" t="n"/>
+      <c r="B19" s="13" t="inlineStr">
+        <is>
+          <t>Homologation</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>2 x WEBSERVERS 8GB RAM 4vCPU (PORTAL WEB)</t>
+        </is>
+      </c>
+      <c r="D19" s="22" t="inlineStr">
+        <is>
+          <t>sa-east-1</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>Windows Server</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>c6in.xlarge</t>
+        </is>
+      </c>
+      <c r="G19" s="26" t="inlineStr">
+        <is>
+          <t>Shared Instances</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J19" s="27" t="inlineStr">
+        <is>
+          <t>Hours/Week</t>
+        </is>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>On-Demand</t>
+        </is>
+      </c>
+      <c r="L19" s="5" t="inlineStr">
+        <is>
+          <t>General Purpose SSD (gp3)</t>
+        </is>
+      </c>
+      <c r="M19" s="6" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
       <c r="N19" s="6" t="n"/>
       <c r="O19" s="6" t="n"/>
-      <c r="P19" s="29" t="n"/>
-      <c r="Q19" s="6" t="n"/>
+      <c r="P19" s="29" t="inlineStr">
+        <is>
+          <t>2x Daily</t>
+        </is>
+      </c>
+      <c r="Q19" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="13">
         <f>IF(ISBLANK(H20),0,1)</f>
         <v/>
       </c>
-      <c r="B20" s="13" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="22" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="26" t="n"/>
-      <c r="H20" s="6" t="n"/>
-      <c r="I20" s="6" t="n"/>
-      <c r="J20" s="27" t="n"/>
-      <c r="K20" s="5" t="n"/>
-      <c r="L20" s="5" t="n"/>
-      <c r="M20" s="6" t="n"/>
+      <c r="B20" s="13" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>2 x BACKUP 16GB RAM 8vCPU (PORTAL QI)</t>
+        </is>
+      </c>
+      <c r="D20" s="22" t="inlineStr">
+        <is>
+          <t>sa-east-1</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>Windows Server</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>c6i.2xlarge</t>
+        </is>
+      </c>
+      <c r="G20" s="26" t="inlineStr">
+        <is>
+          <t>Shared Instances</t>
+        </is>
+      </c>
+      <c r="H20" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I20" s="6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J20" s="27" t="inlineStr">
+        <is>
+          <t>Hours/Week</t>
+        </is>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>On-Demand</t>
+        </is>
+      </c>
+      <c r="L20" s="5" t="inlineStr">
+        <is>
+          <t>General Purpose SSD (gp3)</t>
+        </is>
+      </c>
+      <c r="M20" s="6" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
       <c r="N20" s="6" t="n"/>
       <c r="O20" s="6" t="n"/>
-      <c r="P20" s="29" t="n"/>
-      <c r="Q20" s="6" t="n"/>
+      <c r="P20" s="29" t="inlineStr">
+        <is>
+          <t>2x Daily</t>
+        </is>
+      </c>
+      <c r="Q20" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="13">
